--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -13,9 +13,10 @@
     <sheet name="Time periods" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Time periods 1" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Time periods 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Fuel types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Installations" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Scenarios" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="TP2 scrap" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Fuel types" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Installations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Scenarios" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,6 +509,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Scenarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -9824,6 +9876,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TP2 scrap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9889,7 +9992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10003,80 +10106,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Scenarios</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,26 +533,6 @@
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -602,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1819"/>
+  <dimension ref="A1:A2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9705,6 +9705,2111 @@
     <row r="1819">
       <c r="A1819" t="n">
         <v>1818</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="n">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="n">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="n">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="n">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="n">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="n">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="n">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="n">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="n">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="n">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="n">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="n">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="n">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="n">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="n">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="n">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="n">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="n">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="n">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="n">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="n">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="n">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="n">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="n">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="n">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="n">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="n">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="n">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>2239</v>
       </c>
     </row>
   </sheetData>
@@ -9907,7 +12012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9950,21 +12055,6 @@
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,136 @@
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,16 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -515,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +543,136 @@
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1063"/>
+  <dimension ref="A1:A859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,1026 +5045,6 @@
     <row r="859">
       <c r="A859" t="n">
         <v>858</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="n">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="n">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="n">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="n">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="n">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="n">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="n">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="n">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="n">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="n">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="n">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="n">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" t="n">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" t="n">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="n">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" t="n">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" t="n">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="n">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="n">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="n">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="n">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="n">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="n">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="n">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="n">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="n">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="n">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="n">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="n">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="n">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="n">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="n">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="n">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="n">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="n">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="n">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="n">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="n">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="n">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="n">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="n">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="n">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="n">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="n">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="n">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="n">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="n">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="n">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="n">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="n">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="n">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="n">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="n">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="n">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="n">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="n">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="n">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="n">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="n">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="n">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="n">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="n">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="n">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="n">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="n">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="n">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="n">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="n">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="n">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="n">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="n">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="n">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="n">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="n">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="n">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="n">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="n">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="n">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="n">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="n">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="n">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="n">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="n">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="n">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="n">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="n">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="n">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="n">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="n">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="n">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="n">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="n">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="n">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="n">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="n">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="n">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="n">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="n">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="n">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="n">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="n">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="n">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="n">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="n">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="n">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="n">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="n">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="n">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="n">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="n">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="n">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="n">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="n">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="n">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="n">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="n">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="n">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="n">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="n">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="n">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="n">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="n">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="n">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="n">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="n">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="n">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="n">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="n">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="n">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="n">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="n">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="n">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="n">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="n">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="n">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="n">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="n">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="n">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="n">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="n">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="n">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="n">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="n">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="n">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="n">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="n">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="n">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="n">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="n">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="n">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="n">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="n">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="n">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="n">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="n">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="n">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="n">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="n">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="n">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="n">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="n">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="n">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="n">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="n">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="n">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="n">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="n">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="n">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="n">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="n">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="n">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="n">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="n">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="n">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="n">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="n">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="n">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="n">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="n">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="n">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="n">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="n">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="n">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="n">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="n">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="n">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="n">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="n">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="n">
-        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -6183,7 +5303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6253,31 +5373,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,6 +860,71 @@
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,6 +1228,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,136 +518,6 @@
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,71 +730,6 @@
     <row r="27">
       <c r="A27" t="n">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1228,31 +1033,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,136 @@
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/run_model/SetData-sheets.xlsx
+++ b/run_model/SetData-sheets.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,136 +518,6 @@
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
